--- a/biology/Médecine/1759_en_santé_et_médecine/1759_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1759_en_santé_et_médecine/1759_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1759_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1759_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1759 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1759_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1759_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fin 1758 et début 1759, Madagascar et l'île Maurice sont atteints de la variole[1].
-Début 1759 : l'épidémie de peste à Alexandrie fait 6 à 8 000 morts[2].
-Juin 1759 : épidémie de peste à Chypre à la suite du naufrage sur la côte ouest de Chypre, en avril, d'un navire parti d'Alexandrie : une partie de l'équipage rescapé contamine les villages proches du naufrage, puis l'île entière est contaminée[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fin 1758 et début 1759, Madagascar et l'île Maurice sont atteints de la variole.
+Début 1759 : l'épidémie de peste à Alexandrie fait 6 à 8 000 morts.
+Juin 1759 : épidémie de peste à Chypre à la suite du naufrage sur la côte ouest de Chypre, en avril, d'un navire parti d'Alexandrie : une partie de l'équipage rescapé contamine les villages proches du naufrage, puis l'île entière est contaminée.
 Date inconnue
-Épidémie de suette miliaire à Guise[3].
-La Maison du roi intègre un médecin oculiste, Pierre Demours. Louis XV crée pour lui la charge de « médecin oculiste » attaché à sa personne[4].</t>
+Épidémie de suette miliaire à Guise.
+La Maison du roi intègre un médecin oculiste, Pierre Demours. Louis XV crée pour lui la charge de « médecin oculiste » attaché à sa personne.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1759_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1759_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Angélique du Coudray (1714-1789) fait publier l'Abrégé de l'art des accouchements[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Angélique du Coudray (1714-1789) fait publier l'Abrégé de l'art des accouchements.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1759_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1759_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>17 février : Vincenzo Chiarugi (it) (mort en 1820), médecin italien.
 20 février : Johann Christian Reil (mort en 1813), médecin, anatomiste, physiologiste et psychiatre allemand.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1759_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1759_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>16 février : Bartholomew Mosse (en) (né en 1712), chirurgien irlandais, fondateur du Rotunda Hospital de Dublin en 1745.
 10 mars : Antoine Magnol (né en 1676), médecin et botaniste français.</t>
